--- a/TC01_Jobs78.xlsx
+++ b/TC01_Jobs78.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAB3B97-78AB-4DCC-9AEF-0B1D4E98B654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="1400" yWindow="1400" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="4" r:id="rId1"/>
@@ -67,22 +68,22 @@
     <t>Sales12 descr</t>
   </si>
   <si>
-    <t>Sales12 Note</t>
-  </si>
-  <si>
     <t>Sales13</t>
   </si>
   <si>
     <t>Sales13 descr</t>
   </si>
   <si>
-    <t>Sales13 Note</t>
+    <t>Sales12 Note1</t>
+  </si>
+  <si>
+    <t>Sales13 Note2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,6 +161,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -207,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,9 +244,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,6 +296,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,22 +488,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.7265625" customWidth="1"/>
     <col min="2" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -482,7 +520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -501,8 +539,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2" display="https://opensource-demo.orangehrmlive.com/index.php/pim/viewEmployee/empNumber/8"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" display="https://opensource-demo.orangehrmlive.com/index.php/pim/viewEmployee/empNumber/8" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -510,23 +548,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.7265625" customWidth="1"/>
     <col min="2" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -546,7 +584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -563,10 +601,10 @@
         <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -577,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>19</v>
@@ -588,8 +626,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -597,35 +635,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -642,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -657,7 +695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -676,9 +714,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://opensource-demo.orangehrmlive.com/index.php/pim/viewEmployee/empNumber/8"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" display="https://opensource-demo.orangehrmlive.com/index.php/pim/viewEmployee/empNumber/8" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
